--- a/source/class_schedule.xlsx
+++ b/source/class_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79C0D4D-45D2-A846-AFFC-DFC72CEBC39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1180C8-42A6-CC40-A7BC-003B76397E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="1540" windowWidth="30240" windowHeight="17200" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Topic</t>
   </si>
@@ -453,6 +453,9 @@
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
 - `Broadcasting in numpy &lt;41_broadcasting.ipynb&gt;`_
 - **Opioid Project Rough Draft Due**</t>
+  </si>
+  <si>
+    <t>No class</t>
   </si>
 </sst>
 </file>
@@ -860,7 +863,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,6 +1219,9 @@
       <c r="A27" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
       <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
